--- a/First Characters Are Same2.xlsx
+++ b/First Characters Are Same2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AA3874-3788-4681-86EA-41C58D796C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A0995C-A796-49D5-840F-4BB74A79F21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>It's not short, but it works</t>
+  </si>
+  <si>
+    <t>Solution 2</t>
   </si>
 </sst>
 </file>
@@ -633,6 +636,33 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="927" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{3B08BE92-4D13-463C-BEEA-5BB8AF00BC37}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
@@ -729,7 +759,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,7 +779,9 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="K1" t="s">
         <v>11</v>
@@ -762,6 +794,24 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" t="str" cm="1">
+        <f t="array" ref="F2:F4">_xlfn._xlws.FILTER(
+    A2:A11,
+    IFERROR(
+        _xlfn.MAP(
+            A2:A11,
+            _xlfn.LAMBDA(_xlpm.x,
+                _xlfn.LET(
+                    _xlpm.z, _xlfn.CONCAT(LEFT(_xlfn.TEXTSPLIT(_xlpm.x, " "), 1)),
+                    AND(_xlpm.z = REPT(LEFT(_xlpm.z, 1), LEN(_xlpm.z)), LEN(_xlpm.z) &gt; 1)
+                )
+            )
+        ),
+        FALSE
+    )
+)</f>
+        <v>Donald Duck</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -770,6 +820,9 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="F3" t="str">
+        <v>Carl Cooper Camper</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -777,6 +830,9 @@
       </c>
       <c r="C4" t="s">
         <v>6</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Robert Rohnson</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
